--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="13095" windowHeight="6390"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t>Archipelag - projekt Mati G1</t>
+  </si>
+  <si>
+    <t>Mapa do celów projektowych</t>
+  </si>
+  <si>
+    <t>Wydanie warunkow przyłączenia ZGK</t>
+  </si>
+  <si>
+    <t>150 (?)</t>
+  </si>
+  <si>
+    <t>Różne Dokumenty do warunków</t>
+  </si>
+  <si>
+    <t>200(?)</t>
+  </si>
+  <si>
+    <t>Glapa</t>
   </si>
 </sst>
 </file>
@@ -382,7 +400,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,23 +444,59 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="1">
+        <v>41100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>650</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>650</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="1">
+        <v>41197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Data</t>
   </si>
@@ -53,12 +52,66 @@
   </si>
   <si>
     <t>Glapa</t>
+  </si>
+  <si>
+    <t>Przelewy z mbanku</t>
+  </si>
+  <si>
+    <t>26-07-2012</t>
+  </si>
+  <si>
+    <t>TYSIAK</t>
+  </si>
+  <si>
+    <t>27-08-2012</t>
+  </si>
+  <si>
+    <t>19-09-2012</t>
+  </si>
+  <si>
+    <t>tysiąć</t>
+  </si>
+  <si>
+    <t>04-10-2012</t>
+  </si>
+  <si>
+    <t>damy radę</t>
+  </si>
+  <si>
+    <t>23-11-2012</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>tytuł</t>
+  </si>
+  <si>
+    <t>kwota</t>
+  </si>
+  <si>
+    <t>Przelewy z polbanku</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Przelewy z eb</t>
+  </si>
+  <si>
+    <t>15-10-2012</t>
+  </si>
+  <si>
+    <t>tysiąc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;zł&quot;;[Red]\-#,##0\ &quot;zł&quot;"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -86,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,15 +147,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -397,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -525,99 +607,201 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="C13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="C14" s="2"/>
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1000</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="C15" s="2"/>
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2500</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2500</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="C16" s="2"/>
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1000</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1000</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10">
+        <v>500</v>
+      </c>
+      <c r="C18" s="8">
+        <v>500</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="1:5">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="2"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="1:5">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1000</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="1:5">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="1:5">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="1:5">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Data</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Przelewy z polbanku</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Przelewy z eb</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>tysiąc</t>
+  </si>
+  <si>
+    <t>dwa tysiace</t>
   </si>
 </sst>
 </file>
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -185,6 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -482,7 +483,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -719,27 +720,27 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
-        <v>25</v>
+      <c r="A22" s="12">
+        <v>41171</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2000</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
-        <v>25</v>
+      <c r="A23" s="12">
+        <v>41198</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2800</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -751,7 +752,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -772,10 +773,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C27" s="6">
         <v>1000</v>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -52,57 +52,6 @@
   </si>
   <si>
     <t>Glapa</t>
-  </si>
-  <si>
-    <t>Przelewy z mbanku</t>
-  </si>
-  <si>
-    <t>26-07-2012</t>
-  </si>
-  <si>
-    <t>TYSIAK</t>
-  </si>
-  <si>
-    <t>27-08-2012</t>
-  </si>
-  <si>
-    <t>19-09-2012</t>
-  </si>
-  <si>
-    <t>tysiąć</t>
-  </si>
-  <si>
-    <t>04-10-2012</t>
-  </si>
-  <si>
-    <t>damy radę</t>
-  </si>
-  <si>
-    <t>23-11-2012</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>tytuł</t>
-  </si>
-  <si>
-    <t>kwota</t>
-  </si>
-  <si>
-    <t>Przelewy z polbanku</t>
-  </si>
-  <si>
-    <t>Przelewy z eb</t>
-  </si>
-  <si>
-    <t>15-10-2012</t>
-  </si>
-  <si>
-    <t>tysiąc</t>
-  </si>
-  <si>
-    <t>dwa tysiace</t>
   </si>
 </sst>
 </file>
@@ -166,26 +115,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -480,16 +431,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -510,299 +463,260 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>41015</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>1126</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>1126</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>2252</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>41100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
+        <v>325</v>
+      </c>
+      <c r="D3" s="4">
+        <v>325</v>
+      </c>
+      <c r="E3" s="4">
         <v>650</v>
       </c>
-      <c r="D3" s="2">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>41197</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="C6" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1400</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2500</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2500</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="10">
-        <v>500</v>
-      </c>
-      <c r="C18" s="8">
-        <v>500</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12">
-        <v>41171</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12">
-        <v>41198</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2800</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Data</t>
   </si>
@@ -51,7 +51,16 @@
     <t>200(?)</t>
   </si>
   <si>
-    <t>Glapa</t>
+    <t>Glapa - kierownik budowy</t>
+  </si>
+  <si>
+    <t>Glapa - architekt adaptujący</t>
+  </si>
+  <si>
+    <t>ZDiUK - uzgodnienia</t>
+  </si>
+  <si>
+    <t>Tauron Umowa</t>
   </si>
 </sst>
 </file>
@@ -115,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -137,6 +146,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -434,7 +445,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,7 +538,7 @@
         <v>41197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>1400</v>
@@ -535,50 +546,92 @@
       <c r="D6" s="4">
         <v>1400</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <f>C6+D6</f>
+        <v>2800</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="5">
+        <v>41292</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7:E9" si="0">C7+D7</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="5">
+        <v>41292</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4">
+        <v>74</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="5">
+        <v>41293</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1071</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1071</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>2142</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -61,15 +61,24 @@
   </si>
   <si>
     <t>Tauron Umowa</t>
+  </si>
+  <si>
+    <t>Elektryk - skrzynka Taurona</t>
+  </si>
+  <si>
+    <t>Wpis, wypis KW</t>
+  </si>
+  <si>
+    <t>Projekt płyty fundamentowej</t>
+  </si>
+  <si>
+    <t>Podatek od umowy najmu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;zł&quot;;[Red]\-#,##0\ &quot;zł&quot;"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -135,19 +144,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -445,7 +450,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,7 +558,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5">
-        <v>41292</v>
+        <v>41351</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -565,13 +570,13 @@
         <v>1500</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" ref="E7:E9" si="0">C7+D7</f>
+        <f t="shared" ref="E7:E13" si="0">C7+D7</f>
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5">
-        <v>41292</v>
+        <v>41351</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -589,9 +594,9 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5">
-        <v>41293</v>
-      </c>
-      <c r="B9" s="15" t="s">
+        <v>41352</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4">
@@ -606,67 +611,111 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="5">
+        <v>41353</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>400</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="5">
+        <v>41360</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>260</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="5">
+        <v>41362</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>500</v>
+      </c>
+      <c r="D12" s="4">
+        <v>100</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="14">
+        <v>41367</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>416</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6"/>
@@ -690,15 +739,15 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Podatek od umowy najmu</t>
+  </si>
+  <si>
+    <t>Operaty szacunkowe</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,13 +488,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="13">
         <v>1126</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="13">
         <v>1126</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="13">
         <v>2252</v>
       </c>
     </row>
@@ -502,13 +505,13 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="13">
         <v>325</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="13">
         <v>325</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="13">
         <v>650</v>
       </c>
     </row>
@@ -517,26 +520,26 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5">
@@ -545,13 +548,13 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="13">
         <v>1400</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="13">
         <v>1400</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="13">
         <f>C6+D6</f>
         <v>2800</v>
       </c>
@@ -563,14 +566,14 @@
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="13">
         <v>1500</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="13">
         <v>1500</v>
       </c>
-      <c r="E7" s="4">
-        <f t="shared" ref="E7:E13" si="0">C7+D7</f>
+      <c r="E7" s="13">
+        <f t="shared" ref="E7:E14" si="0">C7+D7</f>
         <v>3000</v>
       </c>
     </row>
@@ -581,13 +584,13 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="13">
         <v>74</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="13">
         <v>74</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
@@ -599,13 +602,13 @@
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="13">
         <v>1071</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="13">
         <v>1071</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>2142</v>
       </c>
@@ -683,11 +686,22 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="5">
+        <v>41372</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="13">
+        <v>500</v>
+      </c>
+      <c r="D14" s="13">
+        <v>500</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Data</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Operaty szacunkowe</t>
+  </si>
+  <si>
+    <t>Partyka - projekty przyłączy</t>
+  </si>
+  <si>
+    <t>Rozsypanie tłucznia</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,10 +526,10 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="16">
         <v>0</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="13"/>
@@ -533,10 +539,10 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="16">
         <v>0</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="13"/>
@@ -573,7 +579,7 @@
         <v>1500</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" ref="E7:E14" si="0">C7+D7</f>
+        <f t="shared" ref="E7:E16" si="0">C7+D7</f>
         <v>3000</v>
       </c>
     </row>
@@ -704,18 +710,40 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="5">
+        <v>41382</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="5">
+        <v>41391</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="16">
+        <v>150</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Data</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Rozsypanie tłucznia</t>
+  </si>
+  <si>
+    <t>Siatka leśna</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -153,10 +156,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -459,7 +458,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,13 +493,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>1126</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>1126</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>2252</v>
       </c>
     </row>
@@ -511,13 +510,13 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>325</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>325</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>650</v>
       </c>
     </row>
@@ -526,26 +525,26 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>0</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5">
@@ -554,13 +553,13 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>1400</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>1400</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <f>C6+D6</f>
         <v>2800</v>
       </c>
@@ -572,14 +571,14 @@
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>1500</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>1500</v>
       </c>
-      <c r="E7" s="13">
-        <f t="shared" ref="E7:E16" si="0">C7+D7</f>
+      <c r="E7" s="11">
+        <f t="shared" ref="E7:E18" si="0">C7+D7</f>
         <v>3000</v>
       </c>
     </row>
@@ -590,13 +589,13 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>74</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>74</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
@@ -605,16 +604,16 @@
       <c r="A9" s="5">
         <v>41352</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>1071</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>1071</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
         <v>2142</v>
       </c>
@@ -674,13 +673,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14">
+      <c r="A13" s="12">
         <v>41367</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>0</v>
       </c>
       <c r="D13" s="4">
@@ -695,16 +694,16 @@
       <c r="A14" s="5">
         <v>41372</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>500</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>500</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -713,10 +712,10 @@
       <c r="A15" s="5">
         <v>41382</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>1000</v>
       </c>
       <c r="D15" s="4">
@@ -731,10 +730,10 @@
       <c r="A16" s="5">
         <v>41391</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>150</v>
       </c>
       <c r="D16" s="4">
@@ -746,60 +745,82 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="5">
+        <v>41404</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="14">
+        <v>200</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="5">
+        <v>41406</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>140</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Siatka leśna</t>
+  </si>
+  <si>
+    <t>Partyka - update projektu kanalizacji</t>
   </si>
 </sst>
 </file>
@@ -457,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,7 +581,7 @@
         <v>1500</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" ref="E7:E18" si="0">C7+D7</f>
+        <f t="shared" ref="E7:E19" si="0">C7+D7</f>
         <v>3000</v>
       </c>
     </row>
@@ -781,11 +784,22 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="5">
+        <v>41428</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <v>200</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Data</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Partyka - update projektu kanalizacji</t>
+  </si>
+  <si>
+    <t>2013-07-xx</t>
+  </si>
+  <si>
+    <t>Geodeta cz.1</t>
+  </si>
+  <si>
+    <t>Geodeta cz.2</t>
+  </si>
+  <si>
+    <t>Piasek</t>
   </si>
 </sst>
 </file>
@@ -460,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -581,7 +593,7 @@
         <v>1500</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" ref="E7:E19" si="0">C7+D7</f>
+        <f t="shared" ref="E7:E22" si="0">C7+D7</f>
         <v>3000</v>
       </c>
     </row>
@@ -802,25 +814,58 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>400</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>650</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5800</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>7800</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Data</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Piasek</t>
+  </si>
+  <si>
+    <t>Opłata doo ZGK za ponowne uzgodnienie</t>
   </si>
 </sst>
 </file>
@@ -160,17 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -470,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,462 +483,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>41015</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="6">
         <v>1126</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="6">
         <v>1126</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="6">
         <v>2252</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>41100</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="6">
         <v>325</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="6">
         <v>325</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="6">
         <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>41197</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>1400</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <v>1400</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <f>C6+D6</f>
         <v>2800</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>41351</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>1500</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>1500</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" ref="E7:E22" si="0">C7+D7</f>
+      <c r="E7" s="6">
+        <f t="shared" ref="E7:E24" si="0">C7+D7</f>
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>41351</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>74</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <v>74</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>41352</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <v>1071</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <v>1071</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>2142</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>41353</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>400</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>41360</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
         <v>260</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>41362</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>500</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12">
+      <c r="A13" s="7">
         <v>41367</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
         <v>416</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>41372</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>500</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>500</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>41382</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="9">
         <v>1000</v>
       </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>41391</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="9">
         <v>150</v>
       </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>41404</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="9">
         <v>200</v>
       </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>41406</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="14">
-        <v>0</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
         <v>140</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>41428</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
         <v>200</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="14">
-        <v>0</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
         <v>400</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14">
-        <v>0</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
         <v>650</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="9">
         <v>2000</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>5800</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>7800</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="4">
+        <v>41484</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="A24" s="4">
+        <v>41488</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="9">
+        <v>147</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Faktury Manex" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Data</t>
   </si>
@@ -103,13 +103,46 @@
   </si>
   <si>
     <t>Opłata doo ZGK za ponowne uzgodnienie</t>
+  </si>
+  <si>
+    <t>Data faktury</t>
+  </si>
+  <si>
+    <t>Data płatności</t>
+  </si>
+  <si>
+    <t>Faktura numer</t>
+  </si>
+  <si>
+    <t>Kwota</t>
+  </si>
+  <si>
+    <t>Termin płatności</t>
+  </si>
+  <si>
+    <t>Konto</t>
+  </si>
+  <si>
+    <t>4817/T/08/2013</t>
+  </si>
+  <si>
+    <t>Folia</t>
+  </si>
+  <si>
+    <t>mbank dza</t>
+  </si>
+  <si>
+    <t>4815/T/08/2013</t>
+  </si>
+  <si>
+    <t>Stal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +155,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -163,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -174,6 +223,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -181,6 +234,22 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:G14" totalsRowShown="0">
+  <autoFilter ref="A2:G14"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Data faktury"/>
+    <tableColumn id="2" name="Data płatności"/>
+    <tableColumn id="3" name="Faktura numer"/>
+    <tableColumn id="4" name="Kwota"/>
+    <tableColumn id="5" name="Opis"/>
+    <tableColumn id="6" name="Termin płatności"/>
+    <tableColumn id="7" name="Konto"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -979,14 +1048,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10">
+        <v>41494</v>
+      </c>
+      <c r="B3" s="10">
+        <v>41497</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1510.21</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="10">
+        <v>41495</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12">
+        <v>41494</v>
+      </c>
+      <c r="B4" s="12">
+        <v>41501</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13">
+        <v>5878.78</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Data</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>Stal</t>
+  </si>
+  <si>
+    <t>4877/T/08/2013</t>
+  </si>
+  <si>
+    <t>Rura woda</t>
+  </si>
+  <si>
+    <t>4916/T/08/2013</t>
+  </si>
+  <si>
+    <t>4969/T/08/2013</t>
+  </si>
+  <si>
+    <t>Styropian</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1129,6 +1144,57 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12">
+        <v>41498</v>
+      </c>
+      <c r="B5" s="12">
+        <v>41501</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12">
+        <v>41498</v>
+      </c>
+      <c r="B6" s="12">
+        <v>41501</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="13">
+        <v>115.01</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12">
+        <v>41499</v>
+      </c>
+      <c r="B7" s="12">
+        <v>41502</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="13">
+        <v>8280.36</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Data</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Styropian</t>
+  </si>
+  <si>
+    <t>SUMA</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -242,6 +245,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -252,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:G14" totalsRowShown="0">
-  <autoFilter ref="A2:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:G16" totalsRowShown="0">
+  <autoFilter ref="A2:G16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data faktury"/>
     <tableColumn id="2" name="Data płatności"/>
@@ -1063,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,6 +1199,20 @@
       <c r="E7" s="13" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="14">
+        <f>SUM(D3:D15)</f>
+        <v>15803.44</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wydatki" sheetId="1" r:id="rId1"/>
     <sheet name="Faktury Manex" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Rachunki Tauron" sheetId="3" r:id="rId3"/>
+    <sheet name="Rachunki ZGK" sheetId="4" r:id="rId4"/>
+    <sheet name="Podatek Kąty" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>Data</t>
   </si>
@@ -154,6 +156,24 @@
   </si>
   <si>
     <t>SUMA</t>
+  </si>
+  <si>
+    <t>Nr faktury</t>
+  </si>
+  <si>
+    <t>Zapłacono</t>
+  </si>
+  <si>
+    <t>559021187/3/s</t>
+  </si>
+  <si>
+    <t>559021187/4/s</t>
+  </si>
+  <si>
+    <t>Kwota przelewu</t>
+  </si>
+  <si>
+    <t>Termin zapłaty</t>
   </si>
 </sst>
 </file>
@@ -230,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -246,6 +266,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -268,6 +289,49 @@
     <tableColumn id="7" name="Konto"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:F14" totalsRowShown="0">
+  <autoFilter ref="B2:F14">
+    <filterColumn colId="4"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Data płatności"/>
+    <tableColumn id="2" name="Nr faktury"/>
+    <tableColumn id="3" name="Kwota"/>
+    <tableColumn id="4" name="Zapłacono"/>
+    <tableColumn id="12" name="Kwota przelewu"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B2:G12" totalsRowShown="0">
+  <autoFilter ref="B2:G12"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Data płatności"/>
+    <tableColumn id="2" name="Kwota"/>
+    <tableColumn id="3" name="Opis"/>
+    <tableColumn id="4" name="Nr faktury"/>
+    <tableColumn id="5" name="Zapłacono"/>
+    <tableColumn id="6" name="Kwota przelewu"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela46" displayName="Tabela46" ref="B2:D9" totalsRowShown="0">
+  <autoFilter ref="B2:D9"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Termin zapłaty"/>
+    <tableColumn id="2" name="Kwota"/>
+    <tableColumn id="3" name="Zapłacono"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1069,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1225,13 +1289,177 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="15">
+        <v>41442</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>58.23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="15">
+        <v>41470</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>58.23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="15">
+        <v>41348</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="15">
+        <v>41409</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="15">
+        <v>41532</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="15">
+        <v>41593</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wydatki" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Data</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Termin zapłaty</t>
+  </si>
+  <si>
+    <t>eb wsp</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -263,10 +265,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1131,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,88 +1197,142 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12">
+      <c r="A4" s="14">
         <v>41494</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <v>41501</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="15">
         <v>5878.78</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="14">
+        <v>41501</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12">
+      <c r="A5" s="14">
         <v>41498</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>41501</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="15">
         <v>19.079999999999998</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>41</v>
       </c>
+      <c r="F5" s="14">
+        <v>41501</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <v>41498</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>41501</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="15">
         <v>115.01</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="F6" s="14">
+        <v>41501</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>41499</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>41502</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="15">
         <v>8280.36</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="15" t="s">
         <v>44</v>
       </c>
+      <c r="F7" s="14">
+        <v>41501</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <f>SUM(D3:D15)</f>
         <v>15803.44</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25">
+        <f>37+13+29+10</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27">
+        <f>F25-F26</f>
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1289,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1322,7 +1378,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>41442</v>
       </c>
       <c r="C3" t="s">
@@ -1331,9 +1387,15 @@
       <c r="D3">
         <v>58.23</v>
       </c>
+      <c r="E3" s="13">
+        <v>41501</v>
+      </c>
+      <c r="F3">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>41470</v>
       </c>
       <c r="C4" t="s">
@@ -1342,6 +1404,210 @@
       <c r="D4">
         <v>58.23</v>
       </c>
+      <c r="E4" s="13">
+        <v>41501</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="13"/>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="13"/>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="13"/>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="13"/>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="13"/>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1402,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1425,7 +1691,7 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>41348</v>
       </c>
       <c r="C3">
@@ -1433,7 +1699,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>41409</v>
       </c>
       <c r="C4">
@@ -1441,7 +1707,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>41532</v>
       </c>
       <c r="C5">
@@ -1449,7 +1715,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>41593</v>
       </c>
       <c r="C6">

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Data</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>eb wsp</t>
+  </si>
+  <si>
+    <t>5017/T/08/2013</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G27"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1288,6 +1291,29 @@
         <v>52</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13">
+        <v>41502</v>
+      </c>
+      <c r="B8" s="13">
+        <v>41505</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>1657.43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="13">
+        <v>41502</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
@@ -1296,43 +1322,11 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(D3:D15)</f>
-        <v>15803.44</v>
+        <v>17460.87</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21">
-        <v>14300</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25">
-        <f>37+13+29+10</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27">
-        <f>F25-F26</f>
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Data</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>5017/T/08/2013</t>
+  </si>
+  <si>
+    <t>5042/T/08/2013</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -214,6 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -266,10 +269,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1139,7 +1142,7 @@
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1177,125 +1180,125 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>41494</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="12">
         <v>41497</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>1510.21</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="12">
         <v>41495</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>41494</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>41501</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>5878.78</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>41501</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>41498</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>41501</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>19.079999999999998</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>41501</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>41498</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>41501</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>115.01</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>41501</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>41499</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>41502</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>8280.36</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>41501</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>41502</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>41505</v>
       </c>
       <c r="C8" t="s">
@@ -1307,26 +1310,43 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>41502</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="14">
+        <v>41502</v>
+      </c>
+      <c r="B9" s="14">
+        <v>41509</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="15">
+        <v>512.29999999999995</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <f>SUM(D3:D15)</f>
-        <v>17460.87</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+        <v>17973.169999999998</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1372,7 +1392,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>41442</v>
       </c>
       <c r="C3" t="s">
@@ -1381,7 +1401,7 @@
       <c r="D3">
         <v>58.23</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>41501</v>
       </c>
       <c r="F3">
@@ -1389,7 +1409,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>41470</v>
       </c>
       <c r="C4" t="s">
@@ -1398,7 +1418,7 @@
       <c r="D4">
         <v>58.23</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>41501</v>
       </c>
       <c r="F4">
@@ -1406,202 +1426,202 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="13"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="13"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="13"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="13"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="13"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="13"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="13"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="13"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="13"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="13"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="13"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="13"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="13"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="13"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="13"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="13"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="13"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="13"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="4:4">
-      <c r="D45" s="13"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="13"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="4:4">
-      <c r="D47" s="13"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="4:4">
-      <c r="D48" s="13"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="13"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="4:4">
-      <c r="D50" s="13"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="4:4">
-      <c r="D51" s="13"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="4:4">
-      <c r="D52" s="13"/>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" spans="4:4">
-      <c r="D53" s="13"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="13"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="4:4">
-      <c r="D55" s="13"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="4:4">
-      <c r="D56" s="13"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="4:4">
-      <c r="D57" s="13"/>
+      <c r="D57" s="11"/>
     </row>
     <row r="58" spans="4:4">
-      <c r="D58" s="13"/>
+      <c r="D58" s="11"/>
     </row>
     <row r="59" spans="4:4">
-      <c r="D59" s="13"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="4:4">
-      <c r="D60" s="13"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="4:4">
-      <c r="D61" s="13"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="4:4">
-      <c r="D62" s="13"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="13"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="4:4">
-      <c r="D64" s="13"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="4:4">
-      <c r="D65" s="13"/>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" spans="4:4">
-      <c r="D66" s="13"/>
+      <c r="D66" s="11"/>
     </row>
     <row r="67" spans="4:4">
-      <c r="D67" s="13"/>
+      <c r="D67" s="11"/>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="13"/>
+      <c r="D68" s="11"/>
     </row>
     <row r="69" spans="4:4">
-      <c r="D69" s="13"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="13"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="4:4">
-      <c r="D71" s="13"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="4:4">
-      <c r="D72" s="13"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="4:4">
-      <c r="D73" s="13"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="13"/>
+      <c r="D74" s="11"/>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="13"/>
+      <c r="D75" s="11"/>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="13"/>
+      <c r="D76" s="11"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="13"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="13"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="13"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="13"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="13"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="13"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="13"/>
+      <c r="D83" s="11"/>
     </row>
     <row r="84" spans="4:4">
-      <c r="D84" s="13"/>
+      <c r="D84" s="11"/>
     </row>
     <row r="85" spans="4:4">
-      <c r="D85" s="13"/>
+      <c r="D85" s="11"/>
     </row>
     <row r="86" spans="4:4">
-      <c r="D86" s="13"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" spans="4:4">
-      <c r="D87" s="13"/>
+      <c r="D87" s="11"/>
     </row>
     <row r="88" spans="4:4">
-      <c r="D88" s="13"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" spans="4:4">
-      <c r="D89" s="13"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="4:4">
-      <c r="D90" s="13"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" spans="4:4">
-      <c r="D91" s="13"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" spans="4:4">
-      <c r="D92" s="13"/>
+      <c r="D92" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1685,7 +1705,7 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>41348</v>
       </c>
       <c r="C3">
@@ -1693,7 +1713,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>41409</v>
       </c>
       <c r="C4">
@@ -1701,7 +1721,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>41532</v>
       </c>
       <c r="C5">
@@ -1709,7 +1729,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>41593</v>
       </c>
       <c r="C6">

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Data</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Opłata doo ZGK za ponowne uzgodnienie</t>
   </si>
   <si>
-    <t>Data faktury</t>
-  </si>
-  <si>
     <t>Data płatności</t>
   </si>
   <si>
@@ -183,13 +180,16 @@
   </si>
   <si>
     <t>5042/T/08/2013</t>
+  </si>
+  <si>
+    <t>Data faktury2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,14 +209,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -258,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -273,8 +265,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -286,10 +276,12 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:G16" totalsRowShown="0">
-  <autoFilter ref="A2:G16"/>
+  <autoFilter ref="A2:G16">
+    <filterColumn colId="1"/>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data faktury"/>
     <tableColumn id="2" name="Data płatności"/>
+    <tableColumn id="8" name="Data faktury2"/>
     <tableColumn id="3" name="Faktura numer"/>
     <tableColumn id="4" name="Kwota"/>
     <tableColumn id="5" name="Opis"/>
@@ -1142,13 +1134,12 @@
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
@@ -1161,184 +1152,190 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="12">
+        <v>41497</v>
+      </c>
+      <c r="B3" s="12">
         <v>41494</v>
       </c>
-      <c r="B3" s="12">
-        <v>41497</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="13">
         <v>1510.21</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="12">
         <v>41495</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="12">
+        <v>41501</v>
+      </c>
+      <c r="B4" s="12">
         <v>41494</v>
       </c>
-      <c r="B4" s="12">
-        <v>41501</v>
-      </c>
       <c r="C4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="13">
         <v>5878.78</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="12">
         <v>41501</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="12">
+        <v>41501</v>
+      </c>
+      <c r="B5" s="12">
         <v>41498</v>
       </c>
-      <c r="B5" s="12">
-        <v>41501</v>
-      </c>
       <c r="C5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="13">
         <v>19.079999999999998</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="12">
         <v>41501</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="12">
+        <v>41501</v>
+      </c>
+      <c r="B6" s="12">
         <v>41498</v>
       </c>
-      <c r="B6" s="12">
-        <v>41501</v>
-      </c>
       <c r="C6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="13">
         <v>115.01</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="12">
         <v>41501</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="12">
+        <v>41502</v>
+      </c>
+      <c r="B7" s="12">
         <v>41499</v>
       </c>
-      <c r="B7" s="12">
-        <v>41502</v>
-      </c>
       <c r="C7" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="13">
         <v>8280.36</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="12">
         <v>41501</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="11">
+        <v>41505</v>
+      </c>
+      <c r="B8" s="11">
         <v>41502</v>
       </c>
-      <c r="B8" s="11">
-        <v>41505</v>
-      </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>1657.43</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11">
         <v>41502</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
+        <v>41509</v>
+      </c>
+      <c r="B9" s="12">
         <v>41502</v>
       </c>
-      <c r="B9" s="14">
-        <v>41509</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="C9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="13">
         <v>512.29999999999995</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>39</v>
+      <c r="E9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="12">
+        <v>41507</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="10">
         <f>SUM(D3:D15)</f>
@@ -1376,19 +1373,19 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -1396,7 +1393,7 @@
         <v>41442</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>58.23</v>
@@ -1413,7 +1410,7 @@
         <v>41470</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>58.23</v>
@@ -1652,22 +1649,22 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1695,13 +1692,13 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:4">

--- a/plan/Mati - wydatki.xlsx
+++ b/plan/Mati - wydatki.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wydatki" sheetId="1" r:id="rId1"/>
-    <sheet name="Faktury Manex" sheetId="2" r:id="rId2"/>
-    <sheet name="Rachunki Tauron" sheetId="3" r:id="rId3"/>
-    <sheet name="Rachunki ZGK" sheetId="4" r:id="rId4"/>
-    <sheet name="Podatek Kąty" sheetId="5" r:id="rId5"/>
+    <sheet name="Wynagrodzenie wykonawcy" sheetId="6" r:id="rId2"/>
+    <sheet name="Faktury Manex" sheetId="2" r:id="rId3"/>
+    <sheet name="Rachunki Tauron" sheetId="3" r:id="rId4"/>
+    <sheet name="Rachunki ZGK" sheetId="4" r:id="rId5"/>
+    <sheet name="Podatek Kąty" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>Data</t>
   </si>
@@ -183,6 +184,48 @@
   </si>
   <si>
     <t>Data faktury2</t>
+  </si>
+  <si>
+    <t>Kolumna6</t>
+  </si>
+  <si>
+    <t>Kolumna7</t>
+  </si>
+  <si>
+    <t>Kolumna8</t>
+  </si>
+  <si>
+    <t>Wykonawca</t>
+  </si>
+  <si>
+    <t>Zakres robót</t>
+  </si>
+  <si>
+    <t>Data wypłaty</t>
+  </si>
+  <si>
+    <t>Antoni Nowak</t>
+  </si>
+  <si>
+    <t>Płyta fundamentowa</t>
+  </si>
+  <si>
+    <t>Parter</t>
+  </si>
+  <si>
+    <t>Strop</t>
+  </si>
+  <si>
+    <t>Ściana kolankowa</t>
+  </si>
+  <si>
+    <t>Mur poddasza</t>
+  </si>
+  <si>
+    <t>Więźba</t>
+  </si>
+  <si>
+    <t>Dach</t>
   </si>
 </sst>
 </file>
@@ -275,6 +318,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="B3:I18" totalsRowShown="0">
+  <autoFilter ref="B3:I18"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Wykonawca"/>
+    <tableColumn id="2" name="Zakres robót"/>
+    <tableColumn id="3" name="Kwota"/>
+    <tableColumn id="4" name="Data wypłaty"/>
+    <tableColumn id="5" name="Konto"/>
+    <tableColumn id="6" name="Kolumna6"/>
+    <tableColumn id="7" name="Kolumna7"/>
+    <tableColumn id="8" name="Kolumna8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:G16" totalsRowShown="0">
   <autoFilter ref="A2:G16">
     <filterColumn colId="1"/>
@@ -292,7 +352,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:F14" totalsRowShown="0">
   <autoFilter ref="B2:F14">
     <filterColumn colId="4"/>
@@ -308,7 +368,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B2:G12" totalsRowShown="0">
   <autoFilter ref="B2:G12"/>
   <tableColumns count="6">
@@ -323,7 +383,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela46" displayName="Tabela46" ref="B2:D9" totalsRowShown="0">
   <autoFilter ref="B2:D9"/>
   <tableColumns count="3">
@@ -1131,6 +1191,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>10584</v>
+      </c>
+      <c r="E4" s="11">
+        <v>41507</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>7236</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>6372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1354,7 +1549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F92"/>
   <sheetViews>
@@ -1629,7 +1824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G2"/>
   <sheetViews>
@@ -1675,7 +1870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D6"/>
   <sheetViews>
